--- a/results/mp/deberta/corona/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
@@ -118,13 +118,13 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>dear</t>
   </si>
   <si>
     <t>heroes</t>
@@ -1443,25 +1443,25 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6594827586206896</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L23">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="M23">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1469,25 +1469,25 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.6534653465346535</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L24">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1495,13 +1495,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.6428571428571429</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1651,25 +1651,25 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5213414634146342</v>
+        <v>0.5029411764705882</v>
       </c>
       <c r="L31">
         <v>171</v>
       </c>
       <c r="M31">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="10:17">
